--- a/data/gsa_top25_comparison_table.xlsx
+++ b/data/gsa_top25_comparison_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>1.5°C scenario Exchange</t>
   </si>
@@ -37,40 +37,127 @@
     <t>Rank</t>
   </si>
   <si>
-    <t>market for aluminium, wrought alloy → Overhead line, 400kV</t>
-  </si>
-  <si>
-    <t>market for aluminium, wrought alloy → Overhead line, 150kV</t>
-  </si>
-  <si>
-    <t>market for steel, unalloyed → Overhead line, 150kV</t>
-  </si>
-  <si>
-    <t>Overhead line, 150kV → Grid Expansion</t>
-  </si>
-  <si>
-    <t>market for copper, cathode → Land cable, epr insulated, copper, 11kV</t>
-  </si>
-  <si>
-    <t>market for steel, unalloyed → Overhead line, 400kV</t>
-  </si>
-  <si>
-    <t>Land cable, oil insulated, copper, HVDC → Grid Expansion</t>
-  </si>
-  <si>
-    <t>Land cable, vpe insulated, aluminium, 10kV → Grid Expansion</t>
-  </si>
-  <si>
-    <t>Overhead line, 400kV → Grid Expansion</t>
-  </si>
-  <si>
-    <t>market for aluminium, wrought alloy → Land cable, vpe insulated, aluminium, 0.4kV</t>
-  </si>
-  <si>
-    <t>Land cable, vpe insulated, aluminium, 0.4kV → Grid Expansion</t>
-  </si>
-  <si>
-    <t>Land cable, epr insulated, copper, 11kV → Grid Expansion</t>
+    <t>Overhead line, 150kV → Grid Expansion (2035)</t>
+  </si>
+  <si>
+    <t>Land cable, vpe insulated, aluminium, 0.4kV → Grid Expansion (2045)</t>
+  </si>
+  <si>
+    <t>Overhead line, 150kV → Grid Expansion (2025)</t>
+  </si>
+  <si>
+    <t>market for copper, cathode → Land cable, oil insulated, copper, HVDC (2023)</t>
+  </si>
+  <si>
+    <t>market for copper, cathode → Land cable, oil insulated, copper, HVDC (2025)</t>
+  </si>
+  <si>
+    <t>market for copper, cathode → Land cable, oil insulated, copper, HVDC (2030)</t>
+  </si>
+  <si>
+    <t>Land cable, oil insulated, copper, HVDC → Grid Expansion (2025)</t>
+  </si>
+  <si>
+    <t>market for steel, unalloyed → Overhead line, 150kV (2025)</t>
+  </si>
+  <si>
+    <t>market for steel, unalloyed → Overhead line, 150kV (2030)</t>
+  </si>
+  <si>
+    <t>market for steel, unalloyed → Overhead line, 150kV (2023)</t>
+  </si>
+  <si>
+    <t>market for steel, unalloyed → Overhead line, 150kV (2040)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for concrete, normal strength (2025)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for concrete, normal strength (2030)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for steel, unalloyed (2035)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for steel, unalloyed (2040)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for steel, unalloyed (2037)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for steel, unalloyed (2030)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for steel, unalloyed (2023)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for steel, unalloyed (2025)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for aluminium, wrought alloy (2023)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for aluminium, wrought alloy (2025)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for aluminium, wrought alloy (2030)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for aluminium, wrought alloy (2035)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for aluminium, wrought alloy (2037)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for aluminium, wrought alloy (2040)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for polyethylene, low density, granulate (2025)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for polyethylene, low density, granulate (2030)</t>
+  </si>
+  <si>
+    <t>Overhead line, 400kV → Grid Expansion (2025)</t>
+  </si>
+  <si>
+    <t>Land cable, oil insulated, copper, HVDC → Grid Expansion (2037)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for copper, cathode (2023)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for copper, cathode (2025)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for copper, cathode (2030)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for copper, cathode (2035)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for copper, cathode (2037)</t>
+  </si>
+  <si>
+    <t>B: Carbon dioxide, fossil // market for copper, cathode (2040)</t>
+  </si>
+  <si>
+    <t>market for aluminium, wrought alloy → Land cable, vpe insulated, aluminium, 0.4kV (2025)</t>
+  </si>
+  <si>
+    <t>market for aluminium, wrought alloy → Land cable, vpe insulated, aluminium, 0.4kV (2030)</t>
+  </si>
+  <si>
+    <t>market for aluminium, wrought alloy → Land cable, vpe insulated, aluminium, 0.4kV (2040)</t>
+  </si>
+  <si>
+    <t>market for aluminium, wrought alloy → Land cable, vpe insulated, aluminium, 0.4kV (2023)</t>
+  </si>
+  <si>
+    <t>market for aluminium, wrought alloy → Land cable, vpe insulated, aluminium, 0.4kV (2037)</t>
+  </si>
+  <si>
+    <t>market for aluminium, wrought alloy → Land cable, vpe insulated, aluminium, 0.4kV (2035)</t>
   </si>
 </sst>
 </file>
@@ -465,19 +552,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.0543</v>
+        <v>0.0613</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>0.0557</v>
+        <v>0.0614</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>0.0614</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -488,19 +575,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.0526</v>
+        <v>0.0558</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>0.0554</v>
+        <v>0.0614</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G3">
-        <v>0.0568</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -511,19 +598,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.0526</v>
+        <v>0.0541</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>0.0552</v>
+        <v>0.0583</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>0.0567</v>
+        <v>0.0539</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -531,22 +618,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.0504</v>
+        <v>0.0541</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>0.0544</v>
+        <v>0.0583</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>0.0555</v>
+        <v>0.0539</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -554,22 +641,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.0504</v>
+        <v>0.0541</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E6">
-        <v>0.0536</v>
+        <v>0.058</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="G6">
-        <v>0.0546</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -577,22 +664,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.0499</v>
+        <v>0.0541</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>0.0536</v>
+        <v>0.0546</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G7">
-        <v>0.0539</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -600,22 +687,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.0499</v>
+        <v>0.0537</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>0.0535</v>
+        <v>0.0526</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="G8">
-        <v>0.052</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -623,22 +710,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>0.0499</v>
+        <v>0.0533</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>0.0534</v>
+        <v>0.0526</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G9">
-        <v>0.0519</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -646,22 +733,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>0.0488</v>
+        <v>0.0533</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>0.0521</v>
+        <v>0.0526</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G10">
-        <v>0.051</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -669,22 +756,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>0.0486</v>
+        <v>0.0533</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>0.052</v>
+        <v>0.0526</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G11">
-        <v>0.0509</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -692,22 +779,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>0.0486</v>
+        <v>0.0533</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>0.0519</v>
+        <v>0.0526</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12">
-        <v>0.0497</v>
+        <v>0.0534</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -715,22 +802,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>0.048</v>
+        <v>0.0524</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E13">
-        <v>0.051</v>
+        <v>0.0526</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G13">
-        <v>0.0489</v>
+        <v>0.0522</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -738,22 +825,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>0.0471</v>
+        <v>0.0524</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E14">
-        <v>0.051</v>
+        <v>0.0525</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G14">
-        <v>0.0489</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -761,22 +848,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>0.0465</v>
+        <v>0.0524</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E15">
-        <v>0.0503</v>
+        <v>0.0525</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G15">
-        <v>0.0483</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -784,22 +871,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>0.046</v>
+        <v>0.0524</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>0.0499</v>
+        <v>0.0525</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G16">
-        <v>0.0482</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -807,22 +894,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>0.0457</v>
+        <v>0.0524</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>0.0491</v>
+        <v>0.0525</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G17">
-        <v>0.0473</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -830,22 +917,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>0.0455</v>
+        <v>0.0524</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E18">
-        <v>0.0489</v>
+        <v>0.0525</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G18">
-        <v>0.0467</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -853,22 +940,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>0.0455</v>
+        <v>0.0524</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>0.0489</v>
+        <v>0.0525</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G19">
-        <v>0.0465</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -876,22 +963,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>0.0453</v>
+        <v>0.0524</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E20">
-        <v>0.0484</v>
+        <v>0.0524</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G20">
-        <v>0.0464</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -899,22 +986,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>0.0451</v>
+        <v>0.0515</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E21">
-        <v>0.0477</v>
+        <v>0.0524</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G21">
-        <v>0.0459</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -922,22 +1009,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>0.0449</v>
+        <v>0.0515</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E22">
-        <v>0.0475</v>
+        <v>0.0524</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G22">
-        <v>0.0454</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -945,22 +1032,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>0.0448</v>
+        <v>0.0515</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E23">
-        <v>0.0472</v>
+        <v>0.0524</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G23">
-        <v>0.0454</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -968,22 +1055,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>0.0448</v>
+        <v>0.0515</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E24">
-        <v>0.0466</v>
+        <v>0.0524</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G24">
-        <v>0.0452</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -991,22 +1078,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>0.0445</v>
+        <v>0.0515</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E25">
-        <v>0.0458</v>
+        <v>0.0524</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G25">
-        <v>0.0446</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1014,22 +1101,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>0.0442</v>
+        <v>0.0515</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E26">
-        <v>0.0455</v>
+        <v>0.0516</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G26">
-        <v>0.0444</v>
+        <v>0.0501</v>
       </c>
     </row>
   </sheetData>
